--- a/medicine/Enfance/Kurt_Aust/Kurt_Aust.xlsx
+++ b/medicine/Enfance/Kurt_Aust/Kurt_Aust.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kurt Aust, nom de plume de Kurt Østergaard, né le 6 décembre 1955 à Ikast, au Danemark, est un écrivain norvégien, auteur de roman policier historique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1997, il aborde l'écriture en rédigeant le scénario de Slaveskipet Fredensborg, une bande dessinée.
 En 1999, il publie son premier roman, Vredens dag avec lequel il remporte le Aschehougs debutantstipend (da) 1999. Appartenant au genre du roman policier historique, ce roman met en scène Thomas de Bouebergue, un professeur de l'Université de Copenhague, et Petter Hortten, son jeune assistant. Leurs aventures sont situées à la fin du XVIIe siècle et au début du XVIIIe siècle. Avec Hjemsøkt, paru en 2003, il est lauréat du prix Riverton 2003 et du prix Clé de verre 2004.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Vredens dag (1999)
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vredens dag (1999)
 Den tredje sannhet (2001)
 Hjemsøkt (2003)
 Kongefrykt (2004)
@@ -556,15 +575,7 @@
 Hevnens alkymi (2009)
 Når døde hvisker (2011)
 Stumme skrik (2013)
-Dødt løp (2015)
-Autres romans
-Kasper &amp; Måns. Den store kaosdagen (2006), ouvrage de littérature d'enfance et de jeunesse écrit en collaboration avec Kin Wessel
-Kaos og øyeblikkets renhet (2008), roman historique
-Théâtre
-Løvøyspillet (2006)
-Autres ouvrages
-Slaveskipet Fredensborg (1997), écrit en collaboration avec Kin Wessel et Leif Salvesen
-Symboler &amp; demoner (2010)</t>
+Dødt løp (2015)</t>
         </is>
       </c>
     </row>
@@ -589,15 +600,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kasper &amp; Måns. Den store kaosdagen (2006), ouvrage de littérature d'enfance et de jeunesse écrit en collaboration avec Kin Wessel
+Kaos og øyeblikkets renhet (2008), roman historique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Løvøyspillet (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Slaveskipet Fredensborg (1997), écrit en collaboration avec Kin Wessel et Leif Salvesen
+Symboler &amp; demoner (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kurt_Aust</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Aschehougs debutantstipend (da) 1999 pour Vredens dag[1]
-Prix Riverton 2003 pour Hjemsøkt[2]
-Prix Clé de verre 2004 pour Hjemsøkt[3],[4]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aschehougs debutantstipend (da) 1999 pour Vredens dag
+Prix Riverton 2003 pour Hjemsøkt
+Prix Clé de verre 2004 pour Hjemsøkt,</t>
         </is>
       </c>
     </row>
